--- a/SVX_Boost2X_Lung_Day90_cfu_numbers.xlsx
+++ b/SVX_Boost2X_Lung_Day90_cfu_numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/rstor-henao_lab/Pablo/CFU_Pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22259DFF-99F5-6743-8FBB-C3F80B626F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFE46F8-EA5A-E648-B930-8B87EDA5C8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="500" windowWidth="32460" windowHeight="21600" activeTab="1" xr2:uid="{F188F32F-936C-7746-94B2-81166A817508}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="46">
   <si>
     <t>organ</t>
   </si>
@@ -615,7 +615,7 @@
   <dimension ref="A1:P130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -954,17 +954,17 @@
       <c r="I7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2">
         <v>92</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>29</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>4</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
